--- a/biology/Médecine/Hôpital_national_norvégien/Hôpital_national_norvégien.xlsx
+++ b/biology/Médecine/Hôpital_national_norvégien/Hôpital_national_norvégien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_national_norv%C3%A9gien</t>
+          <t>Hôpital_national_norvégien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital national (Rikshospitalet en norvégien) se trouve à Oslo, Norvège, où il fut fondé en 1826. C'est un hôpital universitaire hautement spécialisé particulièrement tourné vers la recherche et le développement de nouvelles méthodes thérapeutiques. Il fait partie de l'« Autorité sanitaire de la région de Norvège du sud » et est affilié à l'Université d'Oslo.
 Environ 60 % des patients hospitalisés sont adressés par d'autres hôpitaux de Norvège pour des examens complémentaires et des traitements spécialisés. En Norvège, le Rikshospitalet a un rôle important d'expertise dans les cas compliqués et les maladies rares. Il couvre les besoins de tout le pays dans des domaines comme la transplantation d'organes, la neurochirurgie de pointe, et le traitement des malfornmations congénitales chez les enfants. Les membres de la famille royale de Norvège sont soignés dans cet établissement.
